--- a/02_MasterWifoMannheim/99_Backup/Course88.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course88.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F592811596760F37599FE04" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC544184-8A44-4E76-AD45-547D2A4CA49F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 512 IT Management in the Digital Age</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Modern organizations are influenced and driven by information technology (IT) and information systems (IS) in various ways. are forced to continually examine ways to operate more effectively and efficiently. Information technology and information systems are a crucial means of obtaining these goals in the digital Age. IT and This course is designed for students who desire an insightful synopsis of concepts and practices. It is the objective of this course to offer profound insights into information systems and information technology management. Strategic and tactical issues are given more attention than operational aspects.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>This course is designed for students who desire an insightful synopsis of concepts and practices. After successfully completing the course, students should be able to evaluate and initiate strategic understand the role of the Chief Information Officer in order to lead this function, to analyze, design and direct outsourcing as well as offshoring initiatives, and to control the IT function from a top management and risk management perspective. discussed from a planning, leadership, governance, sourcing and controlling perspective. Topics include:  Business / IT Alignment and Strategic IT Planning  Governance frameworks, IT (de-)centralization and the role of the CIO  The IT sourcing decision, hybrid arrangements, and offshoring  IT controlling and IT risk management</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration: yes, limited to 80 participants.</t>
-  </si>
-  <si>
-    <t>Further Information on registration:Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Armin Heinzl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Inf., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="228.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 512 IT Management in the Digital Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Modern organizations are influenced and driven by information technology (IT) and information systems (IS) in various ways. are forced to continually examine ways to operate more effectively and efficiently. Information technology and information systems are a crucial means of obtaining these goals in the digital Age. IT and This course is designed for students who desire an insightful synopsis of concepts and practices. It is the objective of this course to offer profound insights into information systems and information technology management. Strategic and tactical issues are given more attention than operational aspects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This course is designed for students who desire an insightful synopsis of concepts and practices. After successfully completing the course, students should be able to evaluate and initiate strategic understand the role of the Chief Information Officer in order to lead this function, to analyze, design and direct outsourcing as well as offshoring initiatives, and to control the IT function from a top management and risk management perspective. discussed from a planning, leadership, governance, sourcing and controlling perspective. Topics include:  Business / IT Alignment and Strategic IT Planning  Governance frameworks, IT (de-)centralization and the role of the CIO  The IT sourcing decision, hybrid arrangements, and offshoring  IT controlling and IT risk management</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration: yes, limited to 80 participants.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Armin Heinzl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
